--- a/incentives/state_specific_data.xlsx
+++ b/incentives/state_specific_data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/Biorefinery-Tax-Incentives/incentives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE65B4E2-E7C3-CB4D-837F-72FD061370C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722DD9E7-64BA-2C4D-8A4D-E95683973BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="15800" xr2:uid="{ACA89B21-CD83-0545-80CD-93A328B5FE1A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{ACA89B21-CD83-0545-80CD-93A328B5FE1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="methane info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$70:$B$119</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$69</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$70:$C$119</definedName>
@@ -25,12 +26,12 @@
     <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$F$1</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$2:$F$51</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$K$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$K$2:$K$51</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$H$2:$H$51</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$2:$G$51</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$O$2:$O$51</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$51</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$51</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="101">
   <si>
     <t>State</t>
   </si>
@@ -282,9 +283,6 @@
     <t>Feedstock Prices</t>
   </si>
   <si>
-    <t>State Motor Fuel Tax (USD/gal)</t>
-  </si>
-  <si>
     <t>[0.0895, 0.586]</t>
   </si>
   <si>
@@ -305,17 +303,69 @@
   <si>
     <t>State Utility Tax Rate (decimal)</t>
   </si>
+  <si>
+    <t>Methane GWP-100 (kg CO2-eq/kWh)</t>
+  </si>
+  <si>
+    <t>from Burns and Grubert (2021) supplementary data</t>
+  </si>
+  <si>
+    <t>kg CO2e/kWh</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Methane Emissions Percent</t>
+  </si>
+  <si>
+    <t>GWP-100</t>
+  </si>
+  <si>
+    <t>GWP-20</t>
+  </si>
+  <si>
+    <t>Coal CO2 combustion emissions, kg/kWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from Burns and Grubert (2021) figure </t>
+  </si>
+  <si>
+    <t>emissions intensity (%)</t>
+  </si>
+  <si>
+    <t>not actually available so used us average</t>
+  </si>
+  <si>
+    <t>[0.47, 0.67]</t>
+  </si>
+  <si>
+    <t>State Motor Fuel Tax  - at pump (USD/gal)</t>
+  </si>
+  <si>
+    <t>State Motor Fuel Tax  - on producers (decimal)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,16 +381,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -348,11 +437,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -367,9 +484,33 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,7 +781,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$51</c:f>
+              <c:f>Sheet1!$H$2:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1357,7 +1498,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$51</c:f>
+              <c:f>Sheet1!$L$2:$L$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2074,7 +2215,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$51</c:f>
+              <c:f>Sheet1!$O$2:$O$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2796,7 +2937,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$51</c:f>
+              <c:f>Sheet1!$M$2:$M$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3979,6 +4120,355 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'methane info'!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'methane info'!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.40476488999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47574660333711982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54817692306887467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62210065145489257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69756445751561924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77461697528288753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85330890832179973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93369314099595746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42CE-E14D-A9BC-E00B191828CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1815257008"/>
+        <c:axId val="1815112160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1815257008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1815112160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1815112160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1815257008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -4212,10 +4702,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4253,8 +4743,8 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{841AD1B4-5AC3-6746-BCB8-C3142F68F518}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>State Motor Fuel Tax (USD/gal)</cx:v>
+              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:v>State Motor Fuel Tax  - at pump (USD/gal)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -4284,10 +4774,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4325,7 +4815,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00D4F7D1-BF74-0E44-ACE4-63518A652FA3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Sales Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4504,6 +4994,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6395,7 +6925,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6911,7 +7441,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7427,515 +7957,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8451,7 +8473,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8959,7 +8981,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9475,6 +9497,1030 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
@@ -10495,13 +11541,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
@@ -10531,13 +11577,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -10569,13 +11615,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -10613,7 +11659,7 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>654050</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
@@ -10653,7 +11699,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="209550" y="10807700"/>
-              <a:ext cx="3746500" cy="2946400"/>
+              <a:ext cx="4572000" cy="2946400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10685,13 +11731,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -10729,7 +11775,7 @@
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
@@ -10769,7 +11815,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="139700" y="14103350"/>
-              <a:ext cx="3448050" cy="2743200"/>
+              <a:ext cx="4273550" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10801,13 +11847,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -10839,13 +11885,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>615950</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -10884,8 +11930,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4743450" y="10896600"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5568950" y="10896600"/>
+              <a:ext cx="5397500" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10917,13 +11963,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -10962,8 +12008,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4654550" y="14084300"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5480050" y="14084300"/>
+              <a:ext cx="5397500" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10995,13 +12041,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -11040,8 +12086,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4584700" y="16967200"/>
-              <a:ext cx="4572000" cy="2959100"/>
+              <a:off x="5410200" y="16967200"/>
+              <a:ext cx="5397500" cy="2959100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11073,13 +12119,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -11118,8 +12164,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4559300" y="20002500"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5384800" y="20002500"/>
+              <a:ext cx="5397500" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11147,6 +12193,47 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538C6190-8FF6-4942-885F-B7B2965410EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11449,20 +12536,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC2A6F1-FF40-DF41-A5E2-6E4FBD4236BC}">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R81" sqref="R81"/>
+      <selection activeCell="L2" sqref="L2:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11473,43 +12560,49 @@
         <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11530,34 +12623,41 @@
         <f>D2*E2/100</f>
         <v>6.9630000000000004E-3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.24</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
-        <f>H2/100</f>
+      <c r="J2">
+        <f>I2/100</f>
         <v>0.02</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>4</v>
       </c>
-      <c r="K2" s="5">
-        <f>J2/100</f>
+      <c r="L2" s="5">
+        <f>K2/100</f>
         <v>0.04</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>0.82354978354978503</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="2">
+        <f>7.5537*('methane info'!B15/100)+0.3994</f>
+        <v>0.48249069999999999</v>
+      </c>
+      <c r="Q2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11578,31 +12678,38 @@
         <f t="shared" ref="F3:F51" si="1">D3*E3/100</f>
         <v>1.1128000000000001E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I52" si="2">H3/100</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J52" si="2">I3/100</f>
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K51" si="3">J3/100</f>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L51" si="3">K3/100</f>
         <v>0</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>2.5634722222222202</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" s="2">
+        <f>7.5537*('methane info'!B16/100)+0.3994</f>
+        <v>0.50515179999999993</v>
+      </c>
+      <c r="Q3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11623,34 +12730,41 @@
         <f t="shared" si="1"/>
         <v>1.9008000000000001E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0.19</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5.6</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <f t="shared" si="3"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>0.95596153846153598</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" s="2">
+        <f>7.5537*('methane info'!B17/100)+0.3994</f>
+        <v>0.65622580000000008</v>
+      </c>
+      <c r="Q4" t="s">
         <v>62</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>2.3919999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -11671,34 +12785,41 @@
         <f t="shared" si="1"/>
         <v>6.6039999999999996E-3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.248</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6.5</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <f t="shared" si="3"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>0.85480952380952302</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" s="2">
+        <f>7.5537*('methane info'!B18/100)+0.3994</f>
+        <v>0.48249069999999999</v>
+      </c>
+      <c r="Q5" t="s">
         <v>63</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>2.3730000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -11719,34 +12840,41 @@
         <f t="shared" si="1"/>
         <v>7.548E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0.53300000000000003</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>7.25</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <f t="shared" si="3"/>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>1.0981586402266199</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" s="2">
+        <f>7.5537*('methane info'!B19/100)+0.3994</f>
+        <v>0.61090359999999999</v>
+      </c>
+      <c r="Q6" t="s">
         <v>64</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>2.379</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -11767,34 +12895,41 @@
         <f t="shared" si="1"/>
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0.23250000000000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2.9</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <f t="shared" si="3"/>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>0.99910614525139696</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" s="2">
+        <f>7.5537*('methane info'!B20/100)+0.3994</f>
+        <v>0.63356469999999998</v>
+      </c>
+      <c r="Q7" t="s">
         <v>65</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>2.5339999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -11815,34 +12950,41 @@
         <f t="shared" si="1"/>
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.25</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>6.35</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <f t="shared" si="3"/>
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>0.13769999999999999</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>1.11506849315068</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" s="2">
+        <f>7.5537*('methane info'!B21/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+      <c r="Q8" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2.27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -11863,34 +13005,41 @@
         <f t="shared" si="1"/>
         <v>3.6549999999999998E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.23</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>1.04588235294117</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" s="2">
+        <f>7.5537*('methane info'!B22/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+      <c r="Q9" t="s">
         <v>67</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>2.278</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -11911,34 +13060,41 @@
         <f t="shared" si="1"/>
         <v>1.3871E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0.34395999999999999</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>0.82572104018912895</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" s="2">
+        <f>7.5537*('methane info'!B23/100)+0.3994</f>
+        <v>0.474937</v>
+      </c>
+      <c r="Q10" t="s">
         <v>68</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>2.1030000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -11959,34 +13115,41 @@
         <f t="shared" si="1"/>
         <v>1.1287999999999999E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0.27900000000000003</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>0.06</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>0.90413502109704202</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" s="2">
+        <f>7.5537*('methane info'!B24/100)+0.3994</f>
+        <v>0.474937</v>
+      </c>
+      <c r="Q11" t="s">
         <v>69</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>2.2629999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -12007,34 +13170,41 @@
         <f t="shared" si="1"/>
         <v>9.698E-3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0.16</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>0.26100000000000001</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>2.4517088607594899</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" s="2">
+        <f>7.5537*('methane info'!B25/100)+0.3994</f>
+        <v>0.50515179999999993</v>
+      </c>
+      <c r="Q12" t="s">
         <v>70</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>2.9340000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -12055,34 +13225,41 @@
         <f t="shared" si="1"/>
         <v>1.3247999999999998E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0.33</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>6</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>1.0685826771653499</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" s="2">
+        <f>7.5537*('methane info'!B26/100)+0.3994</f>
+        <v>0.55802770000000002</v>
+      </c>
+      <c r="Q13" t="s">
         <v>71</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -12103,34 +13280,41 @@
         <f t="shared" si="1"/>
         <v>2.9756000000000001E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>6.25</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>1</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="2">
+        <f>7.5537*('methane info'!B27/100)+0.3994</f>
+        <v>0.55802770000000002</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -12152,27 +13336,34 @@
         <v>2.4735E-2</v>
       </c>
       <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>0.3</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>7</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>0.921747311827955</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="2">
+        <f>7.5537*('methane info'!B28/100)+0.3994</f>
+        <v>0.57313510000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -12193,28 +13384,35 @@
         <f t="shared" si="1"/>
         <v>2.9024999999999999E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0.30499999999999999</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>1.05122881355932</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="2">
+        <f>7.5537*('methane info'!B29/100)+0.3994</f>
+        <v>0.56558140000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -12235,29 +13433,36 @@
         <f t="shared" si="1"/>
         <v>2.9928E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0.24030000000000001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>6.5</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <f t="shared" si="3"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>1.02352459016393</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="2">
+        <f>7.5537*('methane info'!B30/100)+0.3994</f>
+        <v>0.67133320000000007</v>
+      </c>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -12278,28 +13483,35 @@
         <f t="shared" si="1"/>
         <v>7.3439999999999998E-3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0.26</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>0.874117647058822</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="2">
+        <f>7.5537*('methane info'!B31/100)+0.3994</f>
+        <v>0.49004439999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -12320,28 +13532,35 @@
         <f t="shared" si="1"/>
         <v>4.6979999999999991E-3</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0.20125000000000001</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>4.45</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <f t="shared" si="3"/>
         <v>4.4500000000000005E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>0.847694805194804</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="2">
+        <f>7.5537*('methane info'!B32/100)+0.3994</f>
+        <v>0.474937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -12362,28 +13581,35 @@
         <f t="shared" si="1"/>
         <v>1.1445E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0.31403999999999999</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>5.5</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <f t="shared" si="3"/>
         <v>5.5E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>1.0423026315789401</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="2">
+        <f>7.5537*('methane info'!B33/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -12404,28 +13630,35 @@
         <f t="shared" si="1"/>
         <v>8.6129999999999991E-3</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0.36890499999999998</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>6</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>0.98325966850828705</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="2">
+        <f>7.5537*('methane info'!B34/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -12446,28 +13679,35 @@
         <f t="shared" si="1"/>
         <v>3.6919999999999994E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>0.24</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>6.25</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>0.1489</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <v>1.17718954248365</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="2">
+        <f>7.5537*('methane info'!B35/100)+0.3994</f>
+        <v>0.474937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -12488,28 +13728,35 @@
         <f t="shared" si="1"/>
         <v>2.0412000000000003E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0.26300000000000001</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>6</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
         <v>1.03088372093023</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="2">
+        <f>7.5537*('methane info'!B36/100)+0.3994</f>
+        <v>0.50515179999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -12530,28 +13777,35 @@
         <f t="shared" si="1"/>
         <v>2.7510000000000003E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>0.28599999999999998</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>6.875</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <f t="shared" si="3"/>
         <v>6.8750000000000006E-2</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
         <v>1.0664848484848399</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="2">
+        <f>7.5537*('methane info'!B37/100)+0.3994</f>
+        <v>0.52781290000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -12572,28 +13826,35 @@
         <f t="shared" si="1"/>
         <v>9.2560000000000003E-3</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0.184</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>7</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>0.06</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
         <v>0.91778925619834395</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="2">
+        <f>7.5537*('methane info'!B38/100)+0.3994</f>
+        <v>0.53536660000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -12614,28 +13875,35 @@
         <f t="shared" si="1"/>
         <v>1.8473E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>0.17419999999999999</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>4.2249999999999996</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <f t="shared" si="3"/>
         <v>4.2249999999999996E-2</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="4">
         <v>7.22E-2</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>1.01294685990338</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="2">
+        <f>7.5537*('methane info'!B39/100)+0.3994</f>
+        <v>0.57313510000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -12656,28 +13924,35 @@
         <f t="shared" si="1"/>
         <v>1.1536999999999999E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>0.32750000000000001</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="4">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
         <v>1.12787581699346</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="2">
+        <f>7.5537*('methane info'!B40/100)+0.3994</f>
+        <v>0.56558140000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -12698,28 +13973,35 @@
         <f t="shared" si="1"/>
         <v>1.7776E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H28">
         <v>0.30599999999999999</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>5.5</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <f t="shared" si="3"/>
         <v>5.5E-2</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N28" s="2">
+      <c r="O28" s="2">
         <v>0.93129411764706205</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="2">
+        <f>7.5537*('methane info'!B41/100)+0.3994</f>
+        <v>0.61090359999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -12740,28 +14022,35 @@
         <f t="shared" si="1"/>
         <v>8.3160000000000005E-3</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>0.23805000000000001</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>6.85</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <f t="shared" si="3"/>
         <v>6.8499999999999991E-2</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N29" s="2">
+      <c r="O29" s="2">
         <v>1.2103846153846101</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="2">
+        <f>7.5537*('methane info'!B42/100)+0.3994</f>
+        <v>0.54292030000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -12782,28 +14071,35 @@
         <f t="shared" si="1"/>
         <v>1.8600000000000002E-2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>0.23824999999999999</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>0.13420000000000001</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="2">
+        <f>7.5537*('methane info'!B43/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -12824,28 +14120,35 @@
         <f t="shared" si="1"/>
         <v>1.89E-2</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0.41399999999999998</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>6.625</v>
       </c>
-      <c r="K31" s="5">
+      <c r="L31" s="5">
         <f t="shared" si="3"/>
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="4">
         <v>0.1007</v>
       </c>
-      <c r="N31" s="2">
+      <c r="O31" s="2">
         <v>1.21164062499999</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="2">
+        <f>7.5537*('methane info'!B44/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -12866,28 +14169,35 @@
         <f t="shared" si="1"/>
         <v>6.5449999999999996E-3</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>0.18875</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>5.125</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L32" s="5">
         <f t="shared" si="3"/>
         <v>5.1249999999999997E-2</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <v>0.97622641509433805</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="2">
+        <f>7.5537*('methane info'!B45/100)+0.3994</f>
+        <v>0.64867209999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -12908,28 +14218,35 @@
         <f t="shared" si="1"/>
         <v>7.4046000000000001E-2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0.40450000000000003</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>4</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="N33" s="2">
+      <c r="O33" s="2">
         <v>1.1382673267326699</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P33" s="2">
+        <f>7.5537*('methane info'!B46/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -12950,28 +14267,35 @@
         <f t="shared" si="1"/>
         <v>7.8000000000000005E-3</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>0.36349999999999999</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>4.75</v>
       </c>
-      <c r="K34" s="5">
+      <c r="L34" s="5">
         <f t="shared" si="3"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O34" s="2">
         <v>0.884571428571434</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P34" s="2">
+        <f>7.5537*('methane info'!B47/100)+0.3994</f>
+        <v>0.474937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -12992,28 +14316,35 @@
         <f t="shared" si="1"/>
         <v>1.562E-2</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>0.23025000000000001</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5</v>
       </c>
-      <c r="K35" s="5">
+      <c r="L35" s="5">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="N35" s="2">
+      <c r="O35" s="2">
         <v>1.06910869565217</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P35" s="2">
+        <f>7.5537*('methane info'!B48/100)+0.3994</f>
+        <v>0.56558140000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -13034,28 +14365,35 @@
         <f t="shared" si="1"/>
         <v>1.7544000000000001E-2</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>0.38500000000000001</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>5.75</v>
       </c>
-      <c r="K36" s="5">
+      <c r="L36" s="5">
         <f t="shared" si="3"/>
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="N36" s="2">
+      <c r="O36" s="2">
         <v>0.93595617529880604</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P36" s="2">
+        <f>7.5537*('methane info'!B49/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -13077,27 +14415,34 @@
         <v>7.8440000000000003E-3</v>
       </c>
       <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
         <v>0.2</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>4.5</v>
       </c>
-      <c r="K37" s="5">
+      <c r="L37" s="5">
         <f t="shared" si="3"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="N37" s="2">
+      <c r="O37" s="2">
         <v>0.87760000000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P37" s="2">
+        <f>7.5537*('methane info'!B50/100)+0.3994</f>
+        <v>0.5882425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -13118,28 +14463,35 @@
         <f t="shared" si="1"/>
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>0.36</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>1.1080630630630599</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P38" s="2">
+        <f>7.5537*('methane info'!B51/100)+0.3994</f>
+        <v>0.54292030000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -13160,28 +14512,35 @@
         <f t="shared" si="1"/>
         <v>2.1060000000000002E-2</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>0.58599999999999997</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>6</v>
       </c>
-      <c r="K39" s="5">
+      <c r="L39" s="5">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="N39" s="2">
+      <c r="O39" s="2">
         <v>1.07753164556962</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P39" s="2">
+        <f>7.5537*('methane info'!B52/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -13202,28 +14561,35 @@
         <f t="shared" si="1"/>
         <v>2.9430000000000005E-2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>0.35119</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>7</v>
       </c>
-      <c r="K40" s="5">
+      <c r="L40" s="5">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L40" s="8">
+      <c r="M40" s="8">
         <v>0.15390000000000001</v>
       </c>
-      <c r="N40" s="2">
+      <c r="O40" s="2">
         <v>1.12333333333333</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P40" s="2">
+        <f>7.5537*('methane info'!B53/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -13244,28 +14610,35 @@
         <f t="shared" si="1"/>
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0.22750000000000001</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>6</v>
       </c>
-      <c r="K41" s="5">
+      <c r="L41" s="5">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="L41" s="8">
+      <c r="M41" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N41" s="2">
+      <c r="O41" s="2">
         <v>0.93315508021390203</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P41" s="2">
+        <f>7.5537*('methane info'!B54/100)+0.3994</f>
+        <v>0.474937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -13287,27 +14660,34 @@
         <v>1.6768000000000002E-2</v>
       </c>
       <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
         <v>0.3</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>4.5</v>
       </c>
-      <c r="K42" s="5">
+      <c r="L42" s="5">
         <f t="shared" si="3"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L42" s="8">
+      <c r="M42" s="8">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="N42" s="2">
+      <c r="O42" s="2">
         <v>0.99818750000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P42" s="2">
+        <f>7.5537*('methane info'!B55/100)+0.3994</f>
+        <v>0.55047400000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -13328,28 +14708,35 @@
         <f t="shared" si="1"/>
         <v>1.0880000000000001E-2</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>0.27400000000000002</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>7</v>
       </c>
-      <c r="K43" s="5">
+      <c r="L43" s="5">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="N43" s="2">
+      <c r="O43" s="2">
         <v>0.85303763440860003</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P43" s="2">
+        <f>7.5537*('methane info'!B56/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -13371,27 +14758,34 @@
         <v>2.2082000000000001E-2</v>
       </c>
       <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
         <v>0.2</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>6.25</v>
       </c>
-      <c r="K44" s="5">
+      <c r="L44" s="5">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="N44" s="2">
+      <c r="O44" s="2">
         <v>0.90491631799163097</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P44" s="2">
+        <f>7.5537*('methane info'!B57/100)+0.3994</f>
+        <v>0.52781290000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -13412,28 +14806,35 @@
         <f t="shared" si="1"/>
         <v>1.098E-2</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>0.3175</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>4.8499999999999996</v>
       </c>
-      <c r="K45" s="5">
+      <c r="L45" s="5">
         <f t="shared" si="3"/>
         <v>4.8499999999999995E-2</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="N45" s="2">
+      <c r="O45" s="2">
         <v>1.07424778761061</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P45" s="2">
+        <f>7.5537*('methane info'!B58/100)+0.3994</f>
+        <v>0.51270550000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -13454,28 +14855,35 @@
         <f t="shared" si="1"/>
         <v>1.8921E-2</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
         <v>0.30730000000000002</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>6</v>
       </c>
-      <c r="K46" s="5">
+      <c r="L46" s="5">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>0.1066</v>
       </c>
-      <c r="N46" s="2">
+      <c r="O46" s="2">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P46" s="2">
+        <f>7.5537*('methane info'!B59/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -13496,28 +14904,35 @@
         <f t="shared" si="1"/>
         <v>5.9940000000000002E-3</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>0.16200000000000001</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>4.3</v>
       </c>
-      <c r="K47" s="5">
+      <c r="L47" s="5">
         <f t="shared" si="3"/>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="N47" s="2">
+      <c r="O47" s="2">
         <v>0.97886292834890798</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P47" s="2">
+        <f>7.5537*('methane info'!B60/100)+0.3994</f>
+        <v>0.48249069999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -13538,28 +14953,35 @@
         <f t="shared" si="1"/>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>0.51995199999999997</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>6.5</v>
       </c>
-      <c r="K48" s="5">
+      <c r="L48" s="5">
         <f t="shared" si="3"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="N48" s="2">
+      <c r="O48" s="2">
         <v>1.1595070422535101</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P48" s="2">
+        <f>7.5537*('methane info'!B61/100)+0.3994</f>
+        <v>0.56558140000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -13580,28 +15002,35 @@
         <f t="shared" si="1"/>
         <v>1.0878000000000001E-2</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>0.35699999999999998</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>6</v>
       </c>
-      <c r="K49" s="5">
+      <c r="L49" s="5">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N49" s="2">
+      <c r="O49" s="2">
         <v>1.00439999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P49" s="2">
+        <f>7.5537*('methane info'!B62/100)+0.3994</f>
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -13622,28 +15051,36 @@
         <f t="shared" si="1"/>
         <v>1.8127999999999998E-2</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>0.32900000000000001</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>5</v>
       </c>
-      <c r="K50" s="5">
+      <c r="L50" s="5">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M50" s="4">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="N50" s="2">
+      <c r="O50" s="2">
         <v>1.0709574468084999</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P50" s="2">
+        <f>7.5537*('methane info'!B63/100)+0.3994</f>
+        <v>0.56558140000000001</v>
+      </c>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -13664,28 +15101,35 @@
         <f t="shared" si="1"/>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>0.24</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>4</v>
       </c>
-      <c r="K51" s="5">
+      <c r="L51" s="5">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="L51" s="4">
+      <c r="M51" s="4">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="N51" s="2">
+      <c r="O51" s="2">
         <v>1.0227906976744101</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P51" s="2">
+        <f>7.5537*('methane info'!B64/100)+0.3994</f>
+        <v>0.48249069999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -13696,37 +15140,41 @@
       <c r="D52" s="7"/>
       <c r="E52" s="1"/>
       <c r="F52" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52">
+        <v>81</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="L52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N52" s="1" t="s">
+      <c r="M52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K56" s="4"/>
+      <c r="P52" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L56" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -14188,10 +15636,781 @@
       <c r="D119" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M59:N109">
-    <sortCondition ref="M59:M109"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N59:O109">
+    <sortCondition ref="N59:N109"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C9487D-7D81-5947-A0E7-63312D3E611B}">
+  <dimension ref="A1:K64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.54842537999999996</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.54842537999999996</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.59109365999999997</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.59109365999999997</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.47810763000000001</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.47810763000000001</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.40476488999999999</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.40476488999999999</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.95493024999999998</v>
+      </c>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.64460015718969399</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.78084775820842722</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.69475097259326601</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.84159883210039299</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.56195111439151857</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.68072938394617</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.47574660333711982</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.57630403056470625</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.95493024999999998</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.74273768493427972</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1.0180134502578426</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.8005237405455784</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1.0972163546518146</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.64750569030123151</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.88748627572797611</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.54817692306887467</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.75134396991644725</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.95493024999999998</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.84289866685916615</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1.2600691565763182</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.90847739031134045</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1.3581043415857394</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.73482427808537143</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1.0985061962063143</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.62210065145489257</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.92999298018265719</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.95493024999999998</v>
+      </c>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.94514633590748776</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1.5071676901097621</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1.0186800744472226</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1.6244274949141211</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.82396200311501433</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1.3139223650279512</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.69756445751561924</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1.1123638448294133</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.95493024999999998</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1.04954658746209</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1.7594682980333838</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1.1312028150912286</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1.8963574514704691</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.9149763118294918</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1.5338736110879385</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.77461697528288753</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1.2985740961003114</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.95493024999999998</v>
+      </c>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1.1561681209646619</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2.0171370039979335</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1.2461196566000003</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2.1740731517833347</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1.0079270951974686</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1.7585046708938825</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.85330890832179973</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1.4887462676110159</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.95493024999999998</v>
+      </c>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1.2650825906715908</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2.280346972456345</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1.3635078280336925</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2.4577612327480902</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1.1028768201432517</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1.9879665061795251</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.93369314099595746</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1.6830081632402305</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.95493024999999998</v>
+      </c>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="17">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="17">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="17">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="17">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="17">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="17">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="17">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="17">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="17">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="17">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="17">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="17">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="17">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="17">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/incentives/state_specific_data.xlsx
+++ b/incentives/state_specific_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/Biorefinery-Tax-Incentives/incentives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722DD9E7-64BA-2C4D-8A4D-E95683973BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C925D7-9CA1-EA48-876E-EA773A86CE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{ACA89B21-CD83-0545-80CD-93A328B5FE1A}"/>
   </bookViews>
@@ -18,27 +18,27 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$70:$B$119</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$69</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$70:$C$119</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$2:$F$51</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$71:$A$120</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$70</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$71:$B$120</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$70</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$71:$C$120</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$H$2:$H$51</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$L$2:$L$51</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$51</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$C$51</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$70:$A$119</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$69</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$51</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$F$2:$F$51</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$H$2:$H$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="102">
   <si>
     <t>State</t>
   </si>
@@ -354,6 +354,9 @@
   <si>
     <t>State Motor Fuel Tax  - on producers (decimal)</t>
   </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
 </sst>
 </file>
 
@@ -469,7 +472,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -506,6 +509,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -4474,18 +4483,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4523,7 +4532,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{FC2F3EC4-C96E-3340-87B8-70D66843A149}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -4535,7 +4544,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{BDA3C212-6CA2-2840-BB48-235B6854C402}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Income Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4566,18 +4575,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4587,7 +4596,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{DB5E0DEC-BDD7-E045-B50E-E9E5077B84A0}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -4599,7 +4608,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{534AC433-1553-B047-BF3B-BCE89F08CC46}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>Electricity Price (USD/kWh)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4630,10 +4639,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4671,7 +4680,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{9CC3CEB9-8BC1-0D4B-9E6A-350019E85A1C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>Property Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4702,10 +4711,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4743,7 +4752,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{841AD1B4-5AC3-6746-BCB8-C3142F68F518}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>State Motor Fuel Tax  - at pump (USD/gal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4774,10 +4783,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4815,7 +4824,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00D4F7D1-BF74-0E44-ACE4-63518A652FA3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.17</cx:f>
               <cx:v>Sales Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4846,10 +4855,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4887,7 +4896,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{8ED5D8B4-47C5-E641-AE5A-567D89B76F43}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>Location Capital Cost Factor (unitless)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11655,13 +11664,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11739,7 +11748,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11771,13 +11780,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11887,13 +11896,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11965,13 +11974,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12043,13 +12052,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12121,13 +12130,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12536,10 +12545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC2A6F1-FF40-DF41-A5E2-6E4FBD4236BC}">
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L51"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15165,479 +15174,526 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M53" s="4"/>
+      <c r="A53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="18">
+        <f>_xlfn.PERCENTILE.INC(C2:C51,0.5)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D53" s="18">
+        <f t="shared" ref="D53:P53" si="4">_xlfn.PERCENTILE.INC(D2:D51,0.5)</f>
+        <v>0.87</v>
+      </c>
+      <c r="E53" s="18">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="F53" s="19">
+        <f t="shared" si="4"/>
+        <v>1.3559499999999999E-2</v>
+      </c>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18">
+        <f t="shared" si="4"/>
+        <v>5.875</v>
+      </c>
+      <c r="L53" s="18">
+        <f t="shared" si="4"/>
+        <v>5.8749999999999997E-2</v>
+      </c>
+      <c r="M53" s="19">
+        <f t="shared" si="4"/>
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="N53" s="18"/>
+      <c r="O53" s="16">
+        <f t="shared" si="4"/>
+        <v>1.0231576439191701</v>
+      </c>
+      <c r="P53" s="16">
+        <f t="shared" si="4"/>
+        <v>0.50515179999999993</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L56" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L57" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="4">
-        <v>6.0100000000000001E-2</v>
-      </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="4">
-        <v>0.17100000000000001</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="4">
-        <v>6.5500000000000003E-2</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="4">
-        <v>5.6399999999999999E-2</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" s="4">
-        <v>0.13200000000000001</v>
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" s="4">
-        <v>7.4700000000000003E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" s="4">
-        <v>0.13769999999999999</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" s="4">
-        <v>7.9500000000000001E-2</v>
+        <v>0.13769999999999999</v>
       </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="4">
-        <v>7.6499999999999999E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="4">
-        <v>0.06</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80" s="4">
-        <v>0.26100000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" s="4">
-        <v>6.4699999999999994E-2</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82" s="4">
-        <v>6.8000000000000005E-2</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" s="4">
-        <v>7.3800000000000004E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="4">
-        <v>6.4500000000000002E-2</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85" s="4">
-        <v>7.5999999999999998E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86" s="4">
-        <v>5.6800000000000003E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87" s="4">
-        <v>5.3499999999999999E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C88" s="4">
-        <v>9.3200000000000005E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C89" s="4">
-        <v>8.2299999999999998E-2</v>
+        <v>9.3200000000000005E-2</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90" s="4">
-        <v>0.1489</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" s="4">
-        <v>7.0999999999999994E-2</v>
+        <v>0.1489</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" s="4">
-        <v>7.5200000000000003E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C93" s="4">
-        <v>0.06</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C94" s="4">
-        <v>7.22E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C95" s="4">
-        <v>5.1900000000000002E-2</v>
+        <v>7.22E-2</v>
       </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96" s="4">
-        <v>7.5999999999999998E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C97" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C98" s="4">
-        <v>0.13420000000000001</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C99" s="4">
-        <v>0.1007</v>
+        <v>0.13420000000000001</v>
       </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C100" s="4">
-        <v>5.8400000000000001E-2</v>
+        <v>0.1007</v>
       </c>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C101" s="4">
-        <v>6.0199999999999997E-2</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C102" s="4">
-        <v>6.3299999999999995E-2</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C103" s="4">
-        <v>7.9799999999999996E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C104" s="4">
-        <v>7.0099999999999996E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C105" s="4">
-        <v>5.3400000000000003E-2</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C106" s="4">
-        <v>5.8599999999999999E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C107" s="4">
-        <v>6.8400000000000002E-2</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>40</v>
-      </c>
-      <c r="C108" s="8">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="D108" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="C108" s="4">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="D108" s="4"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C109" s="8">
-        <v>6.0999999999999999E-2</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" s="8">
-        <v>7.7700000000000005E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D110" s="8"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>43</v>
-      </c>
-      <c r="C111" s="4">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="D111" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C111" s="8">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="D111" s="8"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C112" s="4">
-        <v>5.3900000000000003E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C113" s="4">
-        <v>5.8999999999999997E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C114" s="4">
-        <v>0.1066</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C115" s="4">
-        <v>6.8599999999999994E-2</v>
+        <v>0.1066</v>
       </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C116" s="4">
-        <v>4.7100000000000003E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C117" s="4">
-        <v>6.4000000000000001E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C118" s="4">
-        <v>7.3300000000000004E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" s="4">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>51</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C120" s="4">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="D119" s="4"/>
+      <c r="D120" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N59:O109">
-    <sortCondition ref="N59:N109"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N60:O110">
+    <sortCondition ref="N60:N110"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/incentives/state_specific_data.xlsx
+++ b/incentives/state_specific_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/Biorefinery-Tax-Incentives/incentives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C925D7-9CA1-EA48-876E-EA773A86CE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6DB7E-D63E-E548-B393-11A42CB51D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{ACA89B21-CD83-0545-80CD-93A328B5FE1A}"/>
   </bookViews>
@@ -18,27 +18,27 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$71:$A$120</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$70</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$71:$B$120</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$70</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$71:$C$120</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$51</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$F$2:$F$51</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$51</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$H$2:$H$51</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$H$2:$H$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$71:$A$120</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$70</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$71:$B$120</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$70</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$71:$C$120</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$2:$B$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$F$2:$F$51</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4483,18 +4483,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4532,7 +4532,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{FC2F3EC4-C96E-3340-87B8-70D66843A149}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -4544,7 +4544,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{BDA3C212-6CA2-2840-BB48-235B6854C402}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>Income Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4575,18 +4575,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4596,7 +4596,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{DB5E0DEC-BDD7-E045-B50E-E9E5077B84A0}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -4608,7 +4608,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{534AC433-1553-B047-BF3B-BCE89F08CC46}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>Electricity Price (USD/kWh)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4639,10 +4639,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4680,7 +4680,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{9CC3CEB9-8BC1-0D4B-9E6A-350019E85A1C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Property Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4711,10 +4711,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4752,7 +4752,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{841AD1B4-5AC3-6746-BCB8-C3142F68F518}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>State Motor Fuel Tax  - at pump (USD/gal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4783,10 +4783,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4824,7 +4824,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00D4F7D1-BF74-0E44-ACE4-63518A652FA3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Sales Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4855,10 +4855,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4896,7 +4896,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{8ED5D8B4-47C5-E641-AE5A-567D89B76F43}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Location Capital Cost Factor (unitless)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11707,7 +11707,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="209550" y="10807700"/>
+              <a:off x="209550" y="11010900"/>
               <a:ext cx="4572000" cy="2946400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -11823,7 +11823,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="139700" y="14103350"/>
+              <a:off x="139700" y="14306550"/>
               <a:ext cx="4273550" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -11939,7 +11939,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5568950" y="10896600"/>
+              <a:off x="5568950" y="11099800"/>
               <a:ext cx="5397500" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -12017,7 +12017,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5480050" y="14084300"/>
+              <a:off x="5480050" y="14287500"/>
               <a:ext cx="5397500" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -12095,7 +12095,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5410200" y="16967200"/>
+              <a:off x="5410200" y="17170400"/>
               <a:ext cx="5397500" cy="2959100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -12173,7 +12173,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5384800" y="20002500"/>
+              <a:off x="5384800" y="20205700"/>
               <a:ext cx="5397500" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -12548,7 +12548,7 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/incentives/state_specific_data.xlsx
+++ b/incentives/state_specific_data.xlsx
@@ -1,56 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/Biorefinery-Tax-Incentives/incentives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6DB7E-D63E-E548-B393-11A42CB51D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6CC029-5426-784E-9BC0-B6BF77CC29CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{ACA89B21-CD83-0545-80CD-93A328B5FE1A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{ACA89B21-CD83-0545-80CD-93A328B5FE1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="methane info" sheetId="2" r:id="rId2"/>
+    <sheet name="electricity info" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$H$2:$H$51</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$71:$A$120</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$70</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$71:$B$120</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$70</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$71:$C$120</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$2:$B$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$2:$F$51</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$71:$A$120</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$70</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$71:$B$120</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$2:$H$51</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$70</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$71:$C$120</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$F$2:$F$51</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="151">
   <si>
     <t>State</t>
   </si>
@@ -357,6 +365,153 @@
   <si>
     <t>MEDIAN</t>
   </si>
+  <si>
+    <t>Assumed RTO/ISO</t>
+  </si>
+  <si>
+    <t>SPP</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>GREET name</t>
+  </si>
+  <si>
+    <t>PJM</t>
+  </si>
+  <si>
+    <t>https://ferc.gov/electric/power-sales-and-markets/rtos-and-isos</t>
+  </si>
+  <si>
+    <t>FRCC</t>
+  </si>
+  <si>
+    <t>SERC</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/figure/Regional-Reliability-Councils-of-the-NERC-ERCODElectric-Reliability-Council-of-Texas_fig6_230725630</t>
+  </si>
+  <si>
+    <t>https://learn.pjm.com/pjm-structure/compliance.aspx</t>
+  </si>
+  <si>
+    <t>WECC</t>
+  </si>
+  <si>
+    <t>NPCC</t>
+  </si>
+  <si>
+    <t>TRE</t>
+  </si>
+  <si>
+    <t>Short Greet Name</t>
+  </si>
+  <si>
+    <t>GHG-100 (kg/kWh)</t>
+  </si>
+  <si>
+    <t>Mix: Non Distributed - TRE Mix</t>
+  </si>
+  <si>
+    <t>Mix: Non Distributed - WECC Mix</t>
+  </si>
+  <si>
+    <t>Mix: Non Distributed - SPP Mix</t>
+  </si>
+  <si>
+    <t>Mix: Non Distributed - SERC Mix</t>
+  </si>
+  <si>
+    <t>Mix: Non Distributed - PJM (former RFC) Mix</t>
+  </si>
+  <si>
+    <t>Mix: Non Distributed - NPCC Mix</t>
+  </si>
+  <si>
+    <t>Mix: Non Distributed - MISO (former MRO) Mix</t>
+  </si>
+  <si>
+    <t>Mix: Non Distributed - FRCC Mix</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Mix: Non Distributed - CA Mix</t>
+  </si>
+  <si>
+    <t>https://www.nerc.com/AboutNERC/keyplayers/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>ASCC</t>
+  </si>
+  <si>
+    <t>Mix: Non Distributed - ASCC Mix</t>
+  </si>
+  <si>
+    <t>Mix: Non Distributed - HICC Mix</t>
+  </si>
+  <si>
+    <t>HICC</t>
+  </si>
+  <si>
+    <t>Distributed - HICC Mix</t>
+  </si>
+  <si>
+    <t>Distributed - ASCC Mix</t>
+  </si>
+  <si>
+    <t>Distributed - NPCC Mix</t>
+  </si>
+  <si>
+    <t>Distributed - CA Mix</t>
+  </si>
+  <si>
+    <t>Distributed - FRCC Mix</t>
+  </si>
+  <si>
+    <t>D/ND ratio</t>
+  </si>
+  <si>
+    <t>Distributed - SERC Mix</t>
+  </si>
+  <si>
+    <t>Distributed - SPP Mix</t>
+  </si>
+  <si>
+    <t>Distributed - TRE Mix</t>
+  </si>
+  <si>
+    <t>Distributed - WECC Mix</t>
+  </si>
+  <si>
+    <t>Distributed - MRO Mix</t>
+  </si>
+  <si>
+    <t>Distributed - RFC Mix</t>
+  </si>
+  <si>
+    <t>MWh/yr</t>
+  </si>
+  <si>
+    <t>kWh/yr</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>kg/yr</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>gal/yr</t>
+  </si>
+  <si>
+    <t>kg/gal</t>
+  </si>
 </sst>
 </file>
 
@@ -368,7 +523,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -412,8 +567,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +592,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -467,12 +636,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -515,9 +685,13 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -4483,18 +4657,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4532,7 +4706,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{FC2F3EC4-C96E-3340-87B8-70D66843A149}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -4544,7 +4718,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{BDA3C212-6CA2-2840-BB48-235B6854C402}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Income Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4575,18 +4749,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4596,7 +4770,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{DB5E0DEC-BDD7-E045-B50E-E9E5077B84A0}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -4608,7 +4782,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{534AC433-1553-B047-BF3B-BCE89F08CC46}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>Electricity Price (USD/kWh)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4639,10 +4813,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4680,7 +4854,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{9CC3CEB9-8BC1-0D4B-9E6A-350019E85A1C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>Property Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4711,10 +4885,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4752,7 +4926,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{841AD1B4-5AC3-6746-BCB8-C3142F68F518}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>State Motor Fuel Tax  - at pump (USD/gal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4783,10 +4957,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4824,7 +4998,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00D4F7D1-BF74-0E44-ACE4-63518A652FA3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>Sales Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4855,10 +5029,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4896,7 +5070,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{8ED5D8B4-47C5-E641-AE5A-567D89B76F43}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Location Capital Cost Factor (unitless)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12248,6 +12422,682 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Map of SPP">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3ACB181-45C5-4142-9A79-8AA315D46823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7416800" y="3746500"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Map of MISO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF61C79A-B7EC-7D42-9966-703A2792161D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7429500" y="6502400"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Map of PJM">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1CB8F0-C226-A34E-9B73-E9E6C50AEBE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7429500" y="1079500"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="map of NYISO region">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7721C21-7486-7A41-9A58-9D5CFAF00F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4838700" y="2603500"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Map of California ISO (CAISO)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AD01B4-1478-6047-9648-BE78F48C29DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4838700" y="5207000"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Map image of the Electric Reliability Council of Texas region.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4450F0C5-410D-6F4F-8BEF-1F7EC00FDE47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4851400" y="7759700"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Map of New England ISO (ISO-NE)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D91ED9-2A5A-564E-ACE3-F317EB69C9A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4838700" y="0"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Map of RTOs and ISOs">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCB04CC-EB24-024B-86D5-5A6508B76285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10109200" y="800100"/>
+          <a:ext cx="6388100" cy="4241800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F36EA0-88C6-8B48-B105-63591E7FC4CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5778500" y="10769600"/>
+          <a:ext cx="6019800" cy="4622800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="PJM Learning Center - Compliance">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA83522-A454-E446-A97A-883D962D9EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12204700" y="10502900"/>
+          <a:ext cx="6477000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>156152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98CAF41-0D65-504E-AFF9-A8C61D34D039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16141700" y="5689600"/>
+          <a:ext cx="5562600" cy="3813752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12547,8 +13397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC2A6F1-FF40-DF41-A5E2-6E4FBD4236BC}">
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15704,8 +16554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C9487D-7D81-5947-A0E7-63312D3E611B}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16469,4 +17319,946 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85E3459-D327-A544-87BC-206B9E2C2E00}">
+  <dimension ref="A1:T77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2">
+        <f>C10</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3">
+        <f>C3</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>0.22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4">
+        <f>C13</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5">
+        <f>C7</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6">
+        <f>C4</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>0.66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7">
+        <f>C13</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>0.26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8">
+        <f>C8</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>0.47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9">
+        <f>C9</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10">
+        <v>0.46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="2">
+        <f>C5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11">
+        <f>C10</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12">
+        <v>0.47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="2">
+        <f>C6</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13">
+        <v>0.36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13">
+        <f>C13</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14">
+        <f>C7</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15">
+        <f>C7</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C16" s="3">
+        <f>C3/B16</f>
+        <v>1.0545454545454545</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16">
+        <f>C7</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17">
+        <v>0.21</v>
+      </c>
+      <c r="C17" s="3">
+        <f>C4/B17</f>
+        <v>1.0476190476190477</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17">
+        <f>C11</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18">
+        <v>0.48</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18:C26" si="0">C5/B18</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2">
+        <f>AVERAGE(C9,C10)</f>
+        <v>0.46499999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19">
+        <v>0.86</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0465116279069768</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <f>AVERAGE(C10,C7,C11)</f>
+        <v>0.55666666666666675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20">
+        <v>0.63</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0476190476190477</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20">
+        <f>C8</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21">
+        <v>0.25</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21">
+        <f>C9</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>0.45</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0444444444444443</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22">
+        <f>C8</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23">
+        <v>0.44</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0454545454545454</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23">
+        <f>C7</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24">
+        <v>0.53</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0377358490566038</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24">
+        <f>C7</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25">
+        <v>0.45</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0444444444444443</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25">
+        <f>C10</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26">
+        <v>0.35</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0285714285714287</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2">
+        <f>AVERAGE(C7,C10,C11)</f>
+        <v>0.55666666666666675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27">
+        <f>C13</f>
+        <v>0.36</v>
+      </c>
+      <c r="R27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C28" s="3">
+        <f>AVERAGE(C16:C26)</f>
+        <v>1.0435102323935146</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="2">
+        <f>AVERAGE(C11,C7)</f>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29">
+        <f>C13</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>18000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30">
+        <f>C8</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f>A30*1000</f>
+        <v>18000000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31">
+        <f>C9</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32">
+        <f>C13</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>A31*G6</f>
+        <v>3960000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33">
+        <f>C8</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>A31*G12</f>
+        <v>16200000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34">
+        <f>C10</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>A31*G14</f>
+        <v>11880000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="2">
+        <f>AVERAGE(C7,C11)</f>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36">
+        <f>C9</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="20">
+        <v>350000000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37">
+        <f>C11</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38">
+        <f>C13</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <f>A33/A37</f>
+        <v>1.1314285714285714E-2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39">
+        <f>C9</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <f>A34/A37</f>
+        <v>4.6285714285714284E-2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40">
+        <f>C8</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <f>A35/A37</f>
+        <v>3.3942857142857143E-2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41">
+        <f>C10</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E42" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="2">
+        <f>AVERAGE(C7,C11)</f>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43">
+        <f>C10</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44">
+        <f>C12</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45">
+        <f>C13</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46">
+        <f>C8</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47">
+        <f>C9</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48">
+        <f>C13</f>
+        <v>0.36</v>
+      </c>
+      <c r="R48" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49">
+        <f>C9</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50">
+        <f>C7</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51">
+        <f>C13</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="75" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="T75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="13:20" x14ac:dyDescent="0.2">
+      <c r="M77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A12">
+    <sortCondition ref="A4:A12"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="R48" r:id="rId1" xr:uid="{7F4CC5B9-B2FE-B54F-AE9C-02E9D8B888BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>